--- a/medicine/Mort/Cimetière_Saint-Roch_de_Castres/Cimetière_Saint-Roch_de_Castres.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Roch_de_Castres/Cimetière_Saint-Roch_de_Castres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Roch_de_Castres</t>
+          <t>Cimetière_Saint-Roch_de_Castres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Roch est l'un des cimetières municipaux de la ville de Castres dans le département du Tarn et le plus ancien. Il donne avenue René-Cassin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Roch est l'un des cimetières municipaux de la ville de Castres dans le département du Tarn et le plus ancien. Il donne avenue René-Cassin.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Roch_de_Castres</t>
+          <t>Cimetière_Saint-Roch_de_Castres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière de trente divisions sur plus de 6 hectares[2] a ouvert dans le premier tiers du XIXe siècle. Ses allées sont plantées de cyprès et il est étiré en largeur. Il jouit d'un patrimoine riche[3]: chapelles et tombeaux (souvent de pierre blanche) ouvragés de notabilités, colonnes, frontons, statues, médaillons, etc., et la plupart des sépultures comportent une stèle avec une croix, ce qui donne une allure romantique à cette nécropole. Certaines sépultures sont remarquables comme la chapelle néoclassique Testasecca avec une porte en bronze présentant un bas-relief de vestale arrangeant des guirlandes de fleurs, œuvre de Jean Magrou, ou la sépulture Salvant avec une orante en bronze de Georges Crouzat et la chapelle Chabbert en forme de caverne[3].
-Le cimetière Saint-Roch possède deux carrés militaires, un ossuaire, un columbarium et un jardin du souvenir[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière de trente divisions sur plus de 6 hectares a ouvert dans le premier tiers du XIXe siècle. Ses allées sont plantées de cyprès et il est étiré en largeur. Il jouit d'un patrimoine riche: chapelles et tombeaux (souvent de pierre blanche) ouvragés de notabilités, colonnes, frontons, statues, médaillons, etc., et la plupart des sépultures comportent une stèle avec une croix, ce qui donne une allure romantique à cette nécropole. Certaines sépultures sont remarquables comme la chapelle néoclassique Testasecca avec une porte en bronze présentant un bas-relief de vestale arrangeant des guirlandes de fleurs, œuvre de Jean Magrou, ou la sépulture Salvant avec une orante en bronze de Georges Crouzat et la chapelle Chabbert en forme de caverne.
+Le cimetière Saint-Roch possède deux carrés militaires, un ossuaire, un columbarium et un jardin du souvenir.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Roch_de_Castres</t>
+          <t>Cimetière_Saint-Roch_de_Castres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alexandre Lecamus (1807-1886), industriel du textile et député du Tarn
 Charles Causse (mort à 48 ans), capitaine de frégate commandant de l'Amiral Charner, disparu dans le torpillage de son navire par le U Boot U-21, le 8 février 1916
